--- a/coronavirus/DCCountyList.xlsx
+++ b/coronavirus/DCCountyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jke/Documents/MATLAB/coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72158A1F-FB89-514E-AC33-E0B277D211DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC2DCC3-FB80-7D4F-BF68-C1BF35D5C497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C31E419D-EF4A-7346-BA3E-4FC67E98FE7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1085">
   <si>
     <t>Alexandria city</t>
   </si>
@@ -3277,6 +3277,18 @@
   </si>
   <si>
     <t>Juneau</t>
+  </si>
+  <si>
+    <t>DC Metro Area</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>analysis_start</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -3332,11 +3344,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94D8C37B-5E43-E34D-BCE2-B5EE61B6D599}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{E789E030-024C-E44D-96FF-B131E8025CD8}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94D8C37B-5E43-E34D-BCE2-B5EE61B6D599}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{E789E030-024C-E44D-96FF-B131E8025CD8}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0A6DDD06-9C3F-FF4D-BA5B-46F4C85F832C}" name="County_Name"/>
     <tableColumn id="2" xr3:uid="{56B90809-B640-714E-8937-27CF4DE2E530}" name="State"/>
+    <tableColumn id="3" xr3:uid="{274129C2-6274-314D-A2FD-296EFD14B696}" name="title"/>
+    <tableColumn id="4" xr3:uid="{FC100BAE-6EFA-7142-B4BF-75F3E8E2EA62}" name="analysis_start"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3639,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B1B9E-CEB2-0442-8C95-63BF96C765A9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3650,75 +3664,143 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>429</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1074</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>232</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
